--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1037185.788638256</v>
+        <v>1034644.213495331</v>
       </c>
     </row>
     <row r="7">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.7138576864073</v>
+        <v>338.7138576864072</v>
       </c>
       <c r="C11" t="n">
-        <v>321.2529077939342</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.6630576436096</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>158.4447667849271</v>
       </c>
       <c r="F11" t="n">
         <v>362.8560617646381</v>
@@ -1385,7 +1385,7 @@
         <v>366.9017416763801</v>
       </c>
       <c r="H11" t="n">
-        <v>250.5877804102471</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.1677778111025</v>
+        <v>65.16777781110245</v>
       </c>
       <c r="T11" t="n">
         <v>159.8979861625468</v>
@@ -1427,16 +1427,16 @@
         <v>206.9751879818286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>283.7322744930615</v>
       </c>
       <c r="W11" t="n">
-        <v>175.5573378141478</v>
+        <v>305.2209847403396</v>
       </c>
       <c r="X11" t="n">
         <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.2179546789803</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.811996204864</v>
+        <v>135.8119962048639</v>
       </c>
       <c r="C13" t="n">
         <v>123.2268371215545</v>
@@ -1540,13 +1540,13 @@
         <v>101.4010640458579</v>
       </c>
       <c r="G13" t="n">
-        <v>122.0058242819549</v>
+        <v>51.55262118602498</v>
       </c>
       <c r="H13" t="n">
         <v>100.7350309372474</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276476</v>
+        <v>52.33243643276473</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.912168692974</v>
+        <v>44.91216869297398</v>
       </c>
       <c r="S13" t="n">
-        <v>145.7490413543686</v>
+        <v>145.7490413543685</v>
       </c>
       <c r="T13" t="n">
-        <v>175.5289652990959</v>
+        <v>175.5289652990958</v>
       </c>
       <c r="U13" t="n">
         <v>242.1918542285395</v>
       </c>
       <c r="V13" t="n">
-        <v>137.6644562508228</v>
+        <v>208.1176593467546</v>
       </c>
       <c r="W13" t="n">
-        <v>242.5030143595177</v>
+        <v>242.5030143595176</v>
       </c>
       <c r="X13" t="n">
         <v>181.6896714119638</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.5646693750215</v>
+        <v>174.5646693750214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.7138576864073</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>321.2529077939342</v>
@@ -1613,16 +1613,16 @@
         <v>310.6630576436096</v>
       </c>
       <c r="E14" t="n">
-        <v>337.9103860951885</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G14" t="n">
         <v>366.9017416763801</v>
       </c>
       <c r="H14" t="n">
-        <v>250.5877804102471</v>
+        <v>175.9057166773997</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>206.9751879818286</v>
       </c>
       <c r="V14" t="n">
-        <v>200.5030134835966</v>
+        <v>283.7322744930616</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>305.2209847403396</v>
       </c>
       <c r="X14" t="n">
         <v>325.7111167013957</v>
@@ -1771,10 +1771,10 @@
         <v>104.595489041139</v>
       </c>
       <c r="E16" t="n">
-        <v>31.96077557356396</v>
+        <v>102.4139786694958</v>
       </c>
       <c r="F16" t="n">
-        <v>101.4010640458579</v>
+        <v>83.28029738269086</v>
       </c>
       <c r="G16" t="n">
         <v>122.0058242819549</v>
@@ -1783,7 +1783,7 @@
         <v>100.7350309372474</v>
       </c>
       <c r="I16" t="n">
-        <v>52.33243643276476</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>279.0775231177984</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1904,13 +1904,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>254.350427662984</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>191.465632344713</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020904</v>
@@ -2090,7 +2090,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480584</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958324</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2257,7 +2257,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572793</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912466</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124525</v>
+        <v>49.37728379124679</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U44" t="n">
         <v>204.0200353403094</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1695.059135915829</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.561249255289</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.760180928411</v>
+        <v>963.6864297917241</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.760180928411</v>
+        <v>803.6412108170503</v>
       </c>
       <c r="F11" t="n">
-        <v>690.2389064186752</v>
+        <v>437.1199363073148</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6310865435441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3259.779783416139</v>
+        <v>3259.779783416138</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.266666080233</v>
+        <v>3098.266666080232</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.200819633942</v>
+        <v>2889.20081963394</v>
       </c>
       <c r="V11" t="n">
-        <v>2889.200819633942</v>
+        <v>2602.602562570241</v>
       </c>
       <c r="W11" t="n">
-        <v>2711.870175377227</v>
+        <v>2294.298537579999</v>
       </c>
       <c r="X11" t="n">
-        <v>2382.869047396019</v>
+        <v>1965.297409598792</v>
       </c>
       <c r="Y11" t="n">
-        <v>2037.194345700079</v>
+        <v>1619.622707902852</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3612684827029</v>
+        <v>709.1964168706515</v>
       </c>
       <c r="C13" t="n">
-        <v>655.8897158346681</v>
+        <v>584.7248642226167</v>
       </c>
       <c r="D13" t="n">
-        <v>550.2377067022045</v>
+        <v>479.0728550901531</v>
       </c>
       <c r="E13" t="n">
-        <v>446.7892433996834</v>
+        <v>375.6243917876329</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816451</v>
+        <v>273.1990745695947</v>
       </c>
       <c r="G13" t="n">
-        <v>221.1257198362362</v>
+        <v>221.1257198362361</v>
       </c>
       <c r="H13" t="n">
         <v>119.373163333966</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>155.2145330164216</v>
       </c>
       <c r="K13" t="n">
-        <v>402.7815001026006</v>
+        <v>402.7815001026005</v>
       </c>
       <c r="L13" t="n">
-        <v>762.9210826883993</v>
+        <v>762.9210826883991</v>
       </c>
       <c r="M13" t="n">
         <v>1150.657912425251</v>
@@ -5230,19 +5230,19 @@
         <v>1906.04375518041</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.405518585925</v>
+        <v>1661.405518585926</v>
       </c>
       <c r="V13" t="n">
-        <v>1522.350512271962</v>
+        <v>1451.185660659911</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.397972514874</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X13" t="n">
-        <v>1093.873051896729</v>
+        <v>1022.708200284677</v>
       </c>
       <c r="Y13" t="n">
-        <v>917.5451030330705</v>
+        <v>846.3802514210191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1669.861483724467</v>
+        <v>1619.622707902852</v>
       </c>
       <c r="C14" t="n">
-        <v>1345.363597063927</v>
+        <v>1295.124821242312</v>
       </c>
       <c r="D14" t="n">
-        <v>1031.562528737049</v>
+        <v>981.3237529154337</v>
       </c>
       <c r="E14" t="n">
-        <v>690.2389064186757</v>
+        <v>981.3237529154337</v>
       </c>
       <c r="F14" t="n">
-        <v>690.2389064186757</v>
+        <v>614.8024784056983</v>
       </c>
       <c r="G14" t="n">
-        <v>319.6310865435442</v>
+        <v>244.1946585305668</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,16 +5276,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5309,19 +5309,19 @@
         <v>3098.266666080232</v>
       </c>
       <c r="U14" t="n">
-        <v>2889.200819633941</v>
+        <v>2889.20081963394</v>
       </c>
       <c r="V14" t="n">
-        <v>2686.672523185864</v>
+        <v>2602.602562570241</v>
       </c>
       <c r="W14" t="n">
-        <v>2686.672523185864</v>
+        <v>2294.298537579999</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.671395204656</v>
+        <v>1965.297409598792</v>
       </c>
       <c r="Y14" t="n">
-        <v>2011.996693508717</v>
+        <v>1619.622707902852</v>
       </c>
     </row>
     <row r="15">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.1964168706505</v>
+        <v>709.1964168706504</v>
       </c>
       <c r="C16" t="n">
         <v>584.7248642226157</v>
@@ -5419,28 +5419,28 @@
         <v>479.0728550901521</v>
       </c>
       <c r="E16" t="n">
-        <v>446.7892433996834</v>
+        <v>375.6243917876311</v>
       </c>
       <c r="F16" t="n">
-        <v>344.3639261816451</v>
+        <v>291.5028792798625</v>
       </c>
       <c r="G16" t="n">
-        <v>221.1257198362361</v>
+        <v>168.2646729344536</v>
       </c>
       <c r="H16" t="n">
-        <v>119.373163333966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>155.2145330164215</v>
+        <v>155.2145330164216</v>
       </c>
       <c r="K16" t="n">
         <v>402.7815001026005</v>
       </c>
       <c r="L16" t="n">
-        <v>762.9210826883992</v>
+        <v>762.9210826883993</v>
       </c>
       <c r="M16" t="n">
         <v>1150.657912425251</v>
@@ -5470,10 +5470,10 @@
         <v>1661.405518585925</v>
       </c>
       <c r="V16" t="n">
-        <v>1451.185660659911</v>
+        <v>1451.18566065991</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.233120902822</v>
+        <v>1206.233120902821</v>
       </c>
       <c r="X16" t="n">
         <v>1022.708200284676</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.959858232656</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573979</v>
+        <v>1329.701660921584</v>
       </c>
       <c r="E17" t="n">
         <v>1047.805172923808</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G17" t="n">
         <v>316.6460838753429</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5552,13 +5552,13 @@
         <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2614.542573243047</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>2357.622949341043</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>2357.622949341043</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5659,10 +5659,10 @@
         <v>434.8492327268782</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
         <v>116.3881606657648</v>
@@ -5671,13 +5671,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337114</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5692,10 +5692,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
         <v>2112.720554588246</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1522.736669656749</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.337041025726</v>
+        <v>979.8546354718741</v>
       </c>
       <c r="D20" t="n">
-        <v>1018.520975367048</v>
+        <v>669.0385698131969</v>
       </c>
       <c r="E20" t="n">
-        <v>680.1823557168774</v>
+        <v>330.699950163026</v>
       </c>
       <c r="F20" t="n">
         <v>316.6460838753429</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912081</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.52497783108</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2835.911723435583</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2530.592701113542</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2204.576575800535</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y20" t="n">
-        <v>1861.886876772797</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5908,13 +5908,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5975,7 +5975,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5993,22 +5993,22 @@
         <v>1092.155029011367</v>
       </c>
       <c r="L23" t="n">
-        <v>1543.189242259776</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M23" t="n">
-        <v>2076.7211469317</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N23" t="n">
-        <v>2623.499963990483</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O23" t="n">
-        <v>3126.47243486982</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P23" t="n">
-        <v>3521.246801226998</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
@@ -6023,7 +6023,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6069,10 +6069,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
@@ -6148,10 +6148,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6175,7 +6175,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>625.3777437664576</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.101050269801</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899674</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.947493825705</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913853</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415483</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643405</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302716</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6397,37 +6397,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519674</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6470,43 +6470,43 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698011</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899675</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257051</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913854</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415484</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643407</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302718</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6637,34 +6637,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>810.872990474185</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1261.907203722594</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2240.457506552423</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611205</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3730.833331656763</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3979.119693412445</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6853,55 +6853,55 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.044482857899</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737236</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960318</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7120,25 +7120,25 @@
         <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>810.8729904741863</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1261.907203722595</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>2240.457506552424</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611206</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490543</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,16 +7327,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350172</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7415,19 +7415,19 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1273.952146712634</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M41" t="n">
-        <v>1807.484051384558</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611205</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490542</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3613.827445186491</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
@@ -7488,7 +7488,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
         <v>413.0883853676538</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C43" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7591,16 +7591,16 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386254</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467792</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,43 +7652,43 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524677</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O44" t="n">
-        <v>3015.155006854131</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P44" t="n">
-        <v>3728.510094301078</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570351</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0917554489378</v>
+        <v>207.0917554489374</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280128613</v>
+        <v>219.6411280128608</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773056</v>
+        <v>212.4037444773051</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466203548</v>
+        <v>211.1802466203543</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8814793728458</v>
+        <v>212.8814793728453</v>
       </c>
       <c r="P8" t="n">
-        <v>216.5389132747574</v>
+        <v>216.538913274757</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.271045881665</v>
+        <v>211.2710458816647</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886286</v>
+        <v>121.6722392886284</v>
       </c>
       <c r="K9" t="n">
-        <v>129.0129692144951</v>
+        <v>129.0129692144948</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126868991</v>
+        <v>126.6834126868987</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2811752418613</v>
+        <v>128.281175241861</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1222094543801</v>
+        <v>117.1222094543797</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775442804</v>
+        <v>129.5881775442801</v>
       </c>
       <c r="P9" t="n">
-        <v>123.534286915513</v>
+        <v>123.5342869155127</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0028300142318</v>
+        <v>133.0028300142316</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.0701282031728</v>
+        <v>128.0701282031726</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7407984694295</v>
+        <v>131.7407984694293</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6714018824965</v>
+        <v>120.6714018824963</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048107</v>
+        <v>131.9778425048106</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1843604371516</v>
+        <v>132.1843604371514</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>231.1066821161361</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.3902622431539</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.7498204251479</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>306.6874953089248</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665421</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>40.02214132148555</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>19.40311602546569</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>277.2206841544134</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>209.1187564935606</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>209.1187564935607</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>343.5485285966295</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>52.18875040233411</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>71.87446026386803</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.7498204251477</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>337.9103860951885</v>
+        <v>179.4656193102613</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>250.5877804102471</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7322744930616</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>129.6636469261919</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>70.45320309592987</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>70.45320309593188</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>338.7138576864072</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>337.9103860951884</v>
       </c>
       <c r="F14" t="n">
-        <v>362.8560617646381</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>74.68206373284744</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>83.22926100946498</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>305.2209847403397</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>70.45320309593188</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18.12076666316705</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.33243643276476</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>55.87771033587085</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>68.40553639689243</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>126.832122807702</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>345.987581498313</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.055333763768431e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-3.010895364521859e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882628.1070237913</v>
+        <v>882628.1070237912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888359.8208485042</v>
+        <v>888359.8208485043</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974969.0038084132</v>
+        <v>974969.0038084133</v>
       </c>
     </row>
     <row r="13">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="D2" t="n">
         <v>491570.6835033727</v>
       </c>
       <c r="E2" t="n">
-        <v>455728.1465470989</v>
+        <v>455728.1465470992</v>
       </c>
       <c r="F2" t="n">
-        <v>455728.1465470989</v>
+        <v>455728.1465470986</v>
       </c>
       <c r="G2" t="n">
         <v>458718.6059339055</v>
       </c>
       <c r="H2" t="n">
-        <v>458718.6059339048</v>
+        <v>458718.6059339049</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185693</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="K2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="M2" t="n">
         <v>492625.0619185694</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185691</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185697</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.40754808798</v>
+        <v>21768.40754808861</v>
       </c>
       <c r="E3" t="n">
         <v>1138563.07230445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.456203335692407e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2364.122113215371</v>
+        <v>2364.122113215381</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
-        <v>35215.98718165866</v>
+        <v>35215.98718165872</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2364.122113215359</v>
+        <v>2364.122113215336</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35215.98718165865</v>
+        <v>35215.98718165872</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>419031.3047786793</v>
+        <v>419031.304778679</v>
       </c>
       <c r="E4" t="n">
-        <v>54143.61424359354</v>
+        <v>54143.61424359358</v>
       </c>
       <c r="F4" t="n">
         <v>54143.61424359354</v>
@@ -26433,25 +26433,25 @@
         <v>56995.6694835739</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.6694835739</v>
+        <v>56995.66948357389</v>
       </c>
       <c r="I4" t="n">
+        <v>78703.96570883345</v>
+      </c>
+      <c r="J4" t="n">
+        <v>78703.96570883352</v>
+      </c>
+      <c r="K4" t="n">
+        <v>78703.96570883354</v>
+      </c>
+      <c r="L4" t="n">
+        <v>78703.96570883351</v>
+      </c>
+      <c r="M4" t="n">
+        <v>78703.96570883348</v>
+      </c>
+      <c r="N4" t="n">
         <v>78703.96570883346</v>
-      </c>
-      <c r="J4" t="n">
-        <v>78703.96570883346</v>
-      </c>
-      <c r="K4" t="n">
-        <v>78703.96570883345</v>
-      </c>
-      <c r="L4" t="n">
-        <v>78703.96570883342</v>
-      </c>
-      <c r="M4" t="n">
-        <v>78703.96570883344</v>
-      </c>
-      <c r="N4" t="n">
-        <v>78703.96570883348</v>
       </c>
       <c r="O4" t="n">
         <v>78703.96570883345</v>
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720627</v>
+        <v>34181.7143472063</v>
       </c>
       <c r="E5" t="n">
-        <v>78007.05659436189</v>
+        <v>78007.05659436187</v>
       </c>
       <c r="F5" t="n">
-        <v>78007.05659436189</v>
+        <v>78007.05659436187</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32415.06406411928</v>
+        <v>32410.6504862514</v>
       </c>
       <c r="C6" t="n">
-        <v>32415.0640641194</v>
+        <v>32410.65048625123</v>
       </c>
       <c r="D6" t="n">
-        <v>16589.25682939916</v>
+        <v>16584.86358600208</v>
       </c>
       <c r="E6" t="n">
-        <v>-814985.596595307</v>
+        <v>-815139.333742687</v>
       </c>
       <c r="F6" t="n">
-        <v>323577.4757091435</v>
+        <v>323423.7385617619</v>
       </c>
       <c r="G6" t="n">
-        <v>321103.3210153345</v>
+        <v>320962.0441153984</v>
       </c>
       <c r="H6" t="n">
-        <v>323467.4431285491</v>
+        <v>323326.1662286132</v>
       </c>
       <c r="I6" t="n">
-        <v>275896.8948559071</v>
+        <v>275896.8948559069</v>
       </c>
       <c r="J6" t="n">
-        <v>289327.1673532713</v>
+        <v>289327.1673532714</v>
       </c>
       <c r="K6" t="n">
         <v>324543.15453493</v>
       </c>
       <c r="L6" t="n">
-        <v>322179.032421715</v>
+        <v>322179.0324217147</v>
       </c>
       <c r="M6" t="n">
         <v>117354.5862428569</v>
       </c>
       <c r="N6" t="n">
-        <v>324543.15453493</v>
+        <v>324543.1545349295</v>
       </c>
       <c r="O6" t="n">
         <v>289327.1673532714</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>46.97513661859256</v>
@@ -26707,25 +26707,25 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932138893</v>
+        <v>25.41808932138967</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26814,22 +26814,22 @@
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="N4" t="n">
         <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.955152641519213</v>
+        <v>2.955152641519227</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707332</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519199</v>
+        <v>2.95515264151917</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707332</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932138893</v>
+        <v>25.41808932138967</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271909</v>
+        <v>1064.358611271908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519213</v>
+        <v>2.955152641519227</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707332</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.4283176644599</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5364689128668</v>
+        <v>206.5364689128667</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732336198</v>
+        <v>3.276611732335947</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4503478774926</v>
+        <v>143.4503478774924</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6915682378588</v>
+        <v>206.6915682378587</v>
       </c>
       <c r="T8" t="n">
         <v>222.6485422837117</v>
@@ -27950,7 +27950,7 @@
         <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548185939</v>
+        <v>87.51425548185934</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.76332026176028</v>
+        <v>96.76332026176019</v>
       </c>
       <c r="S9" t="n">
         <v>170.6676464974597</v>
@@ -28032,10 +28032,10 @@
         <v>154.072064444059</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207319013</v>
+        <v>90.11858207319003</v>
       </c>
       <c r="K10" t="n">
-        <v>16.94419376805743</v>
+        <v>16.94419376805728</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176416466</v>
+        <v>82.32391176416455</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2324426921926</v>
+        <v>175.2324426921925</v>
       </c>
       <c r="S10" t="n">
         <v>223.2178033282984</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="C11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="D11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="E11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="F11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="G11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="H11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="T11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="U11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="V11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="W11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="X11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="C13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="D13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="E13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="F13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="G13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="H13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="I13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="J13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="K13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="L13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="M13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="N13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="O13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="P13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="R13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="S13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="T13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="U13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="V13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="W13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="X13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707338</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707334</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="L22" t="n">
         <v>46.97513661859256</v>
@@ -28992,7 +28992,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
         <v>46.97513661859256</v>
@@ -29232,7 +29232,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P25" t="n">
         <v>46.97513661859256</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.975136618593</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K40" t="n">
         <v>46.97513661859256</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021832736538248</v>
+        <v>0.1021832736538277</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046484451307233</v>
+        <v>1.046484451307264</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657539084</v>
+        <v>3.939420657539197</v>
       </c>
       <c r="J8" t="n">
-        <v>8.67267762227632</v>
+        <v>8.67267762227657</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559604272</v>
+        <v>12.9980955960431</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695712597</v>
+        <v>16.12528695712643</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874996717</v>
+        <v>17.94248874996769</v>
       </c>
       <c r="N8" t="n">
-        <v>18.2328169762361</v>
+        <v>18.23281697623663</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204884088</v>
+        <v>17.21673204884138</v>
       </c>
       <c r="P8" t="n">
-        <v>14.69408248051208</v>
+        <v>14.69408248051251</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399278448</v>
+        <v>11.0346439927848</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063657076</v>
+        <v>6.418770063657262</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348386534</v>
+        <v>2.328501348386602</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804196182</v>
+        <v>0.4473072804196311</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892305981</v>
+        <v>0.008174661892306216</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05467287137053469</v>
+        <v>0.05467287137053627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5280248366575324</v>
+        <v>0.5280248366575477</v>
       </c>
       <c r="I9" t="n">
-        <v>1.88237736955569</v>
+        <v>1.882377369555745</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378038105</v>
+        <v>5.165387378038254</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828469759863928</v>
+        <v>8.828469759864184</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709297509</v>
+        <v>11.87096709297543</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85285868015697</v>
+        <v>13.85285868015737</v>
       </c>
       <c r="N9" t="n">
-        <v>14.21950262895323</v>
+        <v>14.21950262895364</v>
       </c>
       <c r="O9" t="n">
-        <v>13.00806690016401</v>
+        <v>13.00806690016439</v>
       </c>
       <c r="P9" t="n">
-        <v>10.44012049881728</v>
+        <v>10.44012049881758</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071789656</v>
+        <v>6.978944071789859</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890882848</v>
+        <v>3.394513890882946</v>
       </c>
       <c r="S9" t="n">
-        <v>1.015524606378133</v>
+        <v>1.015524606378162</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2203700385505323</v>
+        <v>0.2203700385505387</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00359689943227202</v>
+        <v>0.003596899432272125</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877627512</v>
+        <v>0.04583589877627645</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091199736</v>
+        <v>0.4075228091199855</v>
       </c>
       <c r="I10" t="n">
-        <v>1.378410483199256</v>
+        <v>1.378410483199296</v>
       </c>
       <c r="J10" t="n">
-        <v>3.240598043482651</v>
+        <v>3.240598043482745</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057825417</v>
+        <v>5.325298057825571</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078065486</v>
+        <v>6.814548078065683</v>
       </c>
       <c r="M10" t="n">
-        <v>7.184985478175562</v>
+        <v>7.184985478175769</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582736724</v>
+        <v>7.014142582736927</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947032053</v>
+        <v>6.47869594703224</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543643611996036</v>
+        <v>5.543643611996196</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487529729</v>
+        <v>3.83813148752984</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684976879</v>
+        <v>2.060948684976939</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7987947086738125</v>
+        <v>0.7987947086738356</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947713573</v>
+        <v>0.1958442947713629</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002500139933251373</v>
+        <v>0.002500139933251445</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33980,10 +33980,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.59840059013956</v>
+        <v>89.59840059013958</v>
       </c>
       <c r="K13" t="n">
         <v>250.0676435213929</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687118</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629119</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36288,16 +36288,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>686.6967965084683</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>416.1845670468734</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36525,10 +36525,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
@@ -36595,22 +36595,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>358.9411069805484</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>845.6086111391515</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36838,13 +36838,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794536</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37002,13 +37002,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2134278768862</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>79.01631456769047</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37227,7 +37227,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37312,10 +37312,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>829.5225195673249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>459.9130612972801</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165922</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,19 +37543,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>546.3100430489612</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>895.850364009541</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37783,13 +37783,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>507.7788647946663</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>322.6687650675875</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>645.8251254203198</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,13 +38029,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>272.5441252288672</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861313</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
